--- a/ngHOcalib.xlsx
+++ b/ngHOcalib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amohamed/ownCloud/HO/generalMapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CBF228-90FD-5E43-8E1D-0BBD0DF4617D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43478137-327F-0643-A5B3-7345D8872D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Emap_HOcalib!$A$1:$U$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lmap_HOcalib!$A$1:$W$52</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="86">
   <si>
     <t>Side</t>
   </si>
@@ -161,9 +161,6 @@
     <t>QIE8id</t>
   </si>
   <si>
-    <t>Spigot</t>
-  </si>
-  <si>
     <t>Pix</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>dcc</t>
   </si>
   <si>
-    <t>spigot</t>
-  </si>
-  <si>
     <t>fib/slb</t>
   </si>
   <si>
@@ -294,6 +288,9 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>dodeca</t>
   </si>
 </sst>
 </file>
@@ -769,9 +766,9 @@
   <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="800" topLeftCell="A39" activePane="bottomLeft"/>
+      <pane ySplit="800" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -820,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
       </c>
       <c r="K1" t="s">
         <v>40</v>
@@ -841,10 +838,10 @@
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="R1" t="s">
         <v>12</v>
@@ -853,10 +850,10 @@
         <v>39</v>
       </c>
       <c r="T1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" t="s">
         <v>46</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -894,25 +891,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>48</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -962,10 +959,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1033,10 +1030,10 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1054,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1104,10 +1101,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1125,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1175,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1196,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1246,10 +1243,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1267,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -1317,10 +1314,10 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1338,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -1388,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1409,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -1459,10 +1456,10 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -1530,10 +1527,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1551,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -1601,10 +1598,10 @@
         <v>6</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1622,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -1672,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1693,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q13">
         <v>6</v>
@@ -1743,10 +1740,10 @@
         <v>7</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1764,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -1814,10 +1811,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1835,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -1885,10 +1882,10 @@
         <v>8</v>
       </c>
       <c r="I16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1906,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -1956,10 +1953,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1977,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -2027,10 +2024,10 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2048,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -2098,10 +2095,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2119,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -2169,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2190,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -2240,10 +2237,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2261,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -2311,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2332,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -2382,10 +2379,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2403,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q23">
         <v>11</v>
@@ -2453,10 +2450,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2474,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q24">
         <v>11</v>
@@ -2524,10 +2521,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -2545,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q25">
         <v>12</v>
@@ -2595,10 +2592,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2616,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q26">
         <v>12</v>
@@ -2666,10 +2663,10 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2687,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2737,10 +2734,10 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2758,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2808,10 +2805,10 @@
         <v>4</v>
       </c>
       <c r="I29">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2829,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -2879,10 +2876,10 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2900,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -2950,10 +2947,10 @@
         <v>6</v>
       </c>
       <c r="I31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2971,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -3021,10 +3018,10 @@
         <v>6</v>
       </c>
       <c r="I32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3042,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -3092,10 +3089,10 @@
         <v>8</v>
       </c>
       <c r="I33">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3113,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -3163,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="I34">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3184,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -3234,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3255,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -3305,10 +3302,10 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3326,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -3376,10 +3373,10 @@
         <v>10</v>
       </c>
       <c r="I37">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3397,7 +3394,7 @@
         <v>2</v>
       </c>
       <c r="P37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -3447,10 +3444,10 @@
         <v>12</v>
       </c>
       <c r="I38">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3468,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -3518,10 +3515,10 @@
         <v>12</v>
       </c>
       <c r="I39">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3539,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -3589,10 +3586,10 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3610,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -3660,10 +3657,10 @@
         <v>2</v>
       </c>
       <c r="I41">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3681,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -3731,10 +3728,10 @@
         <v>4</v>
       </c>
       <c r="I42">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3752,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -3802,10 +3799,10 @@
         <v>4</v>
       </c>
       <c r="I43">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3823,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -3873,10 +3870,10 @@
         <v>6</v>
       </c>
       <c r="I44">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3894,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -3944,10 +3941,10 @@
         <v>6</v>
       </c>
       <c r="I45">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3965,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -4015,10 +4012,10 @@
         <v>8</v>
       </c>
       <c r="I46">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4036,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q46">
         <v>10</v>
@@ -4086,10 +4083,10 @@
         <v>8</v>
       </c>
       <c r="I47">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4107,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -4157,10 +4154,10 @@
         <v>10</v>
       </c>
       <c r="I48">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4178,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -4228,10 +4225,10 @@
         <v>10</v>
       </c>
       <c r="I49">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4249,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q49">
         <v>11</v>
@@ -4299,10 +4296,10 @@
         <v>10</v>
       </c>
       <c r="I50">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -4320,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="P50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -4370,10 +4367,10 @@
         <v>12</v>
       </c>
       <c r="I51">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -4391,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q51">
         <v>12</v>
@@ -4441,10 +4438,10 @@
         <v>12</v>
       </c>
       <c r="I52">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -4462,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -4506,7 +4503,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="800" activePane="bottomLeft"/>
       <selection sqref="A1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4522,45 +4519,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>26</v>
@@ -4569,7 +4566,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4598,7 +4595,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>26</v>
@@ -4607,7 +4604,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4636,7 +4633,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>26</v>
@@ -4645,7 +4642,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4674,7 +4671,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -4683,7 +4680,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4712,7 +4709,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>26</v>
@@ -4721,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4750,7 +4747,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -4759,7 +4756,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4788,7 +4785,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -4797,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4826,7 +4823,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>26</v>
@@ -4835,7 +4832,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4864,7 +4861,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>26</v>
@@ -4873,7 +4870,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4902,7 +4899,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>26</v>
@@ -4911,7 +4908,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4940,7 +4937,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>26</v>
@@ -4949,7 +4946,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4978,7 +4975,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -4987,7 +4984,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5016,7 +5013,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -5025,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5054,7 +5051,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>26</v>
@@ -5063,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5092,7 +5089,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -5101,7 +5098,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5130,7 +5127,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>26</v>
@@ -5139,7 +5136,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5168,7 +5165,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>26</v>
@@ -5177,7 +5174,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5206,7 +5203,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>26</v>
@@ -5215,7 +5212,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5244,7 +5241,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>26</v>
@@ -5253,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5282,7 +5279,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>26</v>
@@ -5291,7 +5288,7 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5320,7 +5317,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>26</v>
@@ -5329,7 +5326,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5358,7 +5355,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -5367,7 +5364,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5396,7 +5393,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>26</v>
@@ -5405,7 +5402,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5434,7 +5431,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>26</v>
@@ -5443,7 +5440,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5472,7 +5469,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -5481,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5510,7 +5507,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -5519,7 +5516,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5548,7 +5545,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -5557,7 +5554,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>26</v>
@@ -5595,7 +5592,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5624,7 +5621,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>26</v>
@@ -5633,7 +5630,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31">
         <v>26</v>
@@ -5671,7 +5668,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5700,7 +5697,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>26</v>
@@ -5709,7 +5706,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5738,7 +5735,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>26</v>
@@ -5747,7 +5744,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5776,7 +5773,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34">
         <v>26</v>
@@ -5785,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5814,7 +5811,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>26</v>
@@ -5823,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5852,7 +5849,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>26</v>
@@ -5861,7 +5858,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5890,7 +5887,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37">
         <v>26</v>
@@ -5899,7 +5896,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5928,7 +5925,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38">
         <v>26</v>
@@ -5937,7 +5934,7 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>26</v>
@@ -5975,7 +5972,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -6004,7 +6001,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>26</v>
@@ -6013,7 +6010,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -6042,7 +6039,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>26</v>
@@ -6051,7 +6048,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>26</v>
@@ -6089,7 +6086,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -6118,7 +6115,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>26</v>
@@ -6127,7 +6124,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -6156,7 +6153,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>26</v>
@@ -6165,7 +6162,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -6194,7 +6191,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>26</v>
@@ -6203,7 +6200,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -6232,7 +6229,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>26</v>
@@ -6241,7 +6238,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -6270,7 +6267,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47">
         <v>26</v>
@@ -6279,7 +6276,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -6308,7 +6305,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48">
         <v>26</v>
@@ -6317,7 +6314,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -6346,7 +6343,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>26</v>
@@ -6355,7 +6352,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -6384,7 +6381,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>26</v>
@@ -6393,7 +6390,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -6422,7 +6419,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>26</v>
@@ -6431,7 +6428,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6460,7 +6457,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52">
         <v>26</v>
@@ -6469,7 +6466,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E52">
         <v>0</v>

--- a/ngHOcalib.xlsx
+++ b/ngHOcalib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amohamed/ownCloud/HO/generalMapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43478137-327F-0643-A5B3-7345D8872D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D02E4-A95E-4547-9123-F106C78BF4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="20020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lmap_HOcalib" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="98">
   <si>
     <t>Side</t>
   </si>
@@ -291,6 +291,42 @@
   </si>
   <si>
     <t>dodeca</t>
+  </si>
+  <si>
+    <t>HO2M02</t>
+  </si>
+  <si>
+    <t>HO2M04</t>
+  </si>
+  <si>
+    <t>HO2M06</t>
+  </si>
+  <si>
+    <t>HO2M08</t>
+  </si>
+  <si>
+    <t>HO2M10</t>
+  </si>
+  <si>
+    <t>HO2M12</t>
+  </si>
+  <si>
+    <t>HO2P02</t>
+  </si>
+  <si>
+    <t>HO2P04</t>
+  </si>
+  <si>
+    <t>HO2P06</t>
+  </si>
+  <si>
+    <t>HO2P08</t>
+  </si>
+  <si>
+    <t>HO2P10</t>
+  </si>
+  <si>
+    <t>HO2P12</t>
   </si>
 </sst>
 </file>
@@ -763,12 +799,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="800" activePane="bottomLeft"/>
-      <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="800" topLeftCell="A48" activePane="bottomLeft"/>
+      <selection activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:W78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4483,6 +4519,1852 @@
         <v>999994</v>
       </c>
     </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-1</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>71</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>1.5</v>
+      </c>
+      <c r="Q53">
+        <v>7</v>
+      </c>
+      <c r="R53">
+        <v>26</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>18</v>
+      </c>
+      <c r="V53">
+        <v>1129</v>
+      </c>
+      <c r="W53">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-1</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>71</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1.5</v>
+      </c>
+      <c r="Q54">
+        <v>7</v>
+      </c>
+      <c r="R54">
+        <v>26</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>18</v>
+      </c>
+      <c r="V54">
+        <v>1128</v>
+      </c>
+      <c r="W54">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-1</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>2.5</v>
+      </c>
+      <c r="Q55">
+        <v>8</v>
+      </c>
+      <c r="R55">
+        <v>26</v>
+      </c>
+      <c r="S55">
+        <v>4</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>19</v>
+      </c>
+      <c r="V55">
+        <v>1128</v>
+      </c>
+      <c r="W55">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-1</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>2.5</v>
+      </c>
+      <c r="Q56">
+        <v>8</v>
+      </c>
+      <c r="R56">
+        <v>26</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>19</v>
+      </c>
+      <c r="V56">
+        <v>1128</v>
+      </c>
+      <c r="W56">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>3.5</v>
+      </c>
+      <c r="Q57">
+        <v>9</v>
+      </c>
+      <c r="R57">
+        <v>26</v>
+      </c>
+      <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>20</v>
+      </c>
+      <c r="V57">
+        <v>1128</v>
+      </c>
+      <c r="W57">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-1</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>3.5</v>
+      </c>
+      <c r="Q58">
+        <v>9</v>
+      </c>
+      <c r="R58">
+        <v>26</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>20</v>
+      </c>
+      <c r="V58">
+        <v>1128</v>
+      </c>
+      <c r="W58">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-1</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>89</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>4.5</v>
+      </c>
+      <c r="Q59">
+        <v>10</v>
+      </c>
+      <c r="R59">
+        <v>26</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>21</v>
+      </c>
+      <c r="V59">
+        <v>1128</v>
+      </c>
+      <c r="W59">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-1</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>4.5</v>
+      </c>
+      <c r="Q60">
+        <v>10</v>
+      </c>
+      <c r="R60">
+        <v>26</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>21</v>
+      </c>
+      <c r="V60">
+        <v>1128</v>
+      </c>
+      <c r="W60">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-1</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>47</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>90</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>5.5</v>
+      </c>
+      <c r="Q61">
+        <v>11</v>
+      </c>
+      <c r="R61">
+        <v>26</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>22</v>
+      </c>
+      <c r="V61">
+        <v>1128</v>
+      </c>
+      <c r="W61">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-1</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>47</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>5.5</v>
+      </c>
+      <c r="Q62">
+        <v>11</v>
+      </c>
+      <c r="R62">
+        <v>26</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>22</v>
+      </c>
+      <c r="V62">
+        <v>1128</v>
+      </c>
+      <c r="W62">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-1</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>59</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63">
+        <v>12</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>6.5</v>
+      </c>
+      <c r="Q63">
+        <v>12</v>
+      </c>
+      <c r="R63">
+        <v>26</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>23</v>
+      </c>
+      <c r="V63">
+        <v>1128</v>
+      </c>
+      <c r="W63">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-1</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>59</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64">
+        <v>12</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>47</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>6.5</v>
+      </c>
+      <c r="Q64">
+        <v>12</v>
+      </c>
+      <c r="R64">
+        <v>26</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>23</v>
+      </c>
+      <c r="V64">
+        <v>1128</v>
+      </c>
+      <c r="W64">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-1</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>59</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65">
+        <v>12</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>6.5</v>
+      </c>
+      <c r="Q65">
+        <v>12</v>
+      </c>
+      <c r="R65">
+        <v>26</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>23</v>
+      </c>
+      <c r="V65">
+        <v>1128</v>
+      </c>
+      <c r="W65">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>71</v>
+      </c>
+      <c r="D66">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>1.5</v>
+      </c>
+      <c r="Q66">
+        <v>7</v>
+      </c>
+      <c r="R66">
+        <v>27</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>18</v>
+      </c>
+      <c r="V66">
+        <v>1126</v>
+      </c>
+      <c r="W66">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>71</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>47</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1.5</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>27</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>18</v>
+      </c>
+      <c r="V67">
+        <v>1126</v>
+      </c>
+      <c r="W67">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>2.5</v>
+      </c>
+      <c r="Q68">
+        <v>8</v>
+      </c>
+      <c r="R68">
+        <v>27</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>19</v>
+      </c>
+      <c r="V68">
+        <v>1126</v>
+      </c>
+      <c r="W68">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>5</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>2.5</v>
+      </c>
+      <c r="Q69">
+        <v>8</v>
+      </c>
+      <c r="R69">
+        <v>27</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>19</v>
+      </c>
+      <c r="V69">
+        <v>1126</v>
+      </c>
+      <c r="W69">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>3.5</v>
+      </c>
+      <c r="Q70">
+        <v>9</v>
+      </c>
+      <c r="R70">
+        <v>27</v>
+      </c>
+      <c r="S70">
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>20</v>
+      </c>
+      <c r="V70">
+        <v>1126</v>
+      </c>
+      <c r="W70">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>3.5</v>
+      </c>
+      <c r="Q71">
+        <v>9</v>
+      </c>
+      <c r="R71">
+        <v>27</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>20</v>
+      </c>
+      <c r="V71">
+        <v>1126</v>
+      </c>
+      <c r="W71">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>35</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>4.5</v>
+      </c>
+      <c r="Q72">
+        <v>10</v>
+      </c>
+      <c r="R72">
+        <v>27</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>21</v>
+      </c>
+      <c r="V72">
+        <v>1126</v>
+      </c>
+      <c r="W72">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>35</v>
+      </c>
+      <c r="D73">
+        <v>12</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>47</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>4.5</v>
+      </c>
+      <c r="Q73">
+        <v>10</v>
+      </c>
+      <c r="R73">
+        <v>27</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>21</v>
+      </c>
+      <c r="V73">
+        <v>1126</v>
+      </c>
+      <c r="W73">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>47</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>5.5</v>
+      </c>
+      <c r="Q74">
+        <v>11</v>
+      </c>
+      <c r="R74">
+        <v>27</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>22</v>
+      </c>
+      <c r="V74">
+        <v>1126</v>
+      </c>
+      <c r="W74">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>47</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>5.5</v>
+      </c>
+      <c r="Q75">
+        <v>11</v>
+      </c>
+      <c r="R75">
+        <v>27</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>22</v>
+      </c>
+      <c r="V75">
+        <v>1126</v>
+      </c>
+      <c r="W75">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>47</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>5.5</v>
+      </c>
+      <c r="Q76">
+        <v>11</v>
+      </c>
+      <c r="R76">
+        <v>27</v>
+      </c>
+      <c r="S76">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>22</v>
+      </c>
+      <c r="V76">
+        <v>1126</v>
+      </c>
+      <c r="W76">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>59</v>
+      </c>
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>97</v>
+      </c>
+      <c r="H77">
+        <v>12</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>6.5</v>
+      </c>
+      <c r="Q77">
+        <v>12</v>
+      </c>
+      <c r="R77">
+        <v>27</v>
+      </c>
+      <c r="S77">
+        <v>4</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>23</v>
+      </c>
+      <c r="V77">
+        <v>1126</v>
+      </c>
+      <c r="W77">
+        <v>999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>59</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>97</v>
+      </c>
+      <c r="H78">
+        <v>12</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>6.5</v>
+      </c>
+      <c r="Q78">
+        <v>12</v>
+      </c>
+      <c r="R78">
+        <v>27</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>23</v>
+      </c>
+      <c r="V78">
+        <v>1126</v>
+      </c>
+      <c r="W78">
+        <v>999994</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W52">
     <sortCondition ref="S2:S52"/>
@@ -4498,12 +6380,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93411F5-6A9D-D844-BEBB-FDC048972878}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="800" activePane="bottomLeft"/>
       <selection sqref="A1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6493,6 +8375,994 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53">
+        <v>-2</v>
+      </c>
+      <c r="K53">
+        <v>71</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>-2</v>
+      </c>
+      <c r="K54">
+        <v>71</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <v>-2</v>
+      </c>
+      <c r="K55">
+        <v>11</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>19</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56">
+        <v>-2</v>
+      </c>
+      <c r="K56">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>-2</v>
+      </c>
+      <c r="K57">
+        <v>23</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58">
+        <v>26</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58">
+        <v>-2</v>
+      </c>
+      <c r="K58">
+        <v>23</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>21</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59">
+        <v>-2</v>
+      </c>
+      <c r="K59">
+        <v>35</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>21</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60">
+        <v>-2</v>
+      </c>
+      <c r="K60">
+        <v>35</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>22</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61">
+        <v>-2</v>
+      </c>
+      <c r="K61">
+        <v>47</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>22</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <v>-2</v>
+      </c>
+      <c r="K62">
+        <v>47</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>23</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63">
+        <v>-2</v>
+      </c>
+      <c r="K63">
+        <v>59</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>23</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <v>-2</v>
+      </c>
+      <c r="K64">
+        <v>59</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65">
+        <v>26</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>23</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>-2</v>
+      </c>
+      <c r="K65">
+        <v>59</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>18</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>71</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>18</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>71</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68">
+        <v>19</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>19</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>11</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70">
+        <v>27</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>23</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71">
+        <v>27</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>23</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>21</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>35</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>21</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>35</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>22</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>47</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>22</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>47</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>22</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>47</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>23</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>59</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>27</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>23</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>59</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
